--- a/biology/Botanique/Lycopodiales/Lycopodiales.xlsx
+++ b/biology/Botanique/Lycopodiales/Lycopodiales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Lycopodiales (Lycopodiales), couramment appelées lycopodes, sont un ordre de plantes vasculaires appartenant à la classe des Lycophytes.
 </t>
@@ -511,9 +523,11 @@
           <t>Etymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mot Lycopode est basé sur le nom de genre Lycopodium qui a pour origine deux termes grecs lycos/lukos et podion,  signifiant respectivement « loup » et « pied », en référence à l’aspect des rameaux courts de la tige de Lycopodium clavatum (le représentant du genre) évoquant une patte de loup[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mot Lycopode est basé sur le nom de genre Lycopodium qui a pour origine deux termes grecs lycos/lukos et podion,  signifiant respectivement « loup » et « pied », en référence à l’aspect des rameaux courts de la tige de Lycopodium clavatum (le représentant du genre) évoquant une patte de loup.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description générale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Lycopodes sont des plantes vivaces toujours vertes, à racines dichotomiques (division en forme de "Y"). Les fructifications (sporanges) sont toutes semblables (sans différenciation sexuelle), en forme de sac, insérées sur la face supérieure des feuilles, le plus souvent formant dans leur ensemble un épi sporifère plus ou moins long. Les spores sont généralement de couleur jaune soufre et sont toutes semblables également : on parle d'isosporie.
 </t>
@@ -573,7 +589,9 @@
           <t>Liste des familles et genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">famille Lycopodiaceae
 genre Diphasiastrum
@@ -614,9 +632,11 @@
           <t>Phylogénie au sein des Ptéridophytes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Phylogénie des Ptéridophytes actuelles d'après le Pteridophyte Phylogeny Group (2016)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Phylogénie des Ptéridophytes actuelles d'après le Pteridophyte Phylogeny Group (2016) :
 </t>
         </is>
       </c>
@@ -645,10 +665,12 @@
           <t>Usages</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Cosmétique : la poudre élaborée par les spores du lycopode a l'avantage d'absorber les molécules grasses, on l'utilise comme shampooing sec, pour calmer l'irritation des obèses, éviter la formation d'escarre : elle remplaçait autrefois la poudre de talc contre les rougeurs des fesses des bébés.
-Médicinal : la plante est diurétique, anti-rhumatismale. Elle lutte contre la constipation chronique, les crampes, et de nombreuses maladies du foie (cirrhose par exemple). Elle est citée dans le livre le plus connu de Maria Treben, La santé à la pharmacie du Bon Dieu[3].
+Médicinal : la plante est diurétique, anti-rhumatismale. Elle lutte contre la constipation chronique, les crampes, et de nombreuses maladies du foie (cirrhose par exemple). Elle est citée dans le livre le plus connu de Maria Treben, La santé à la pharmacie du Bon Dieu.
 Magie : la poudre de lycopode est extrêmement inflammable. Utilisée pour produire des flammes en magie, elle émet une intense lumière et peut donner de grandes flammes selon le procédé d'utilisation.</t>
         </is>
       </c>
@@ -677,7 +699,9 @@
           <t>Emplacement</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>On trouvera une belle station de Lycopodes au lieu-dit "La Hutte", dans la vallée de l'Ourche.</t>
         </is>
